--- a/pred_ohlcv/54/2019-10-25 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-25 OMG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H217"/>
+  <dimension ref="A1:I197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F2" t="n">
-        <v>20.9</v>
+        <v>334.3888</v>
       </c>
       <c r="G2" t="n">
-        <v>903.5833333333334</v>
+        <v>902.7333333333333</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C3" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D3" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E3" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F3" t="n">
-        <v>705.6678000000001</v>
+        <v>20.9</v>
       </c>
       <c r="G3" t="n">
-        <v>904.4666666666667</v>
+        <v>903.5833333333334</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>911</v>
+      </c>
+      <c r="C4" t="n">
         <v>913</v>
-      </c>
-      <c r="C4" t="n">
-        <v>909</v>
       </c>
       <c r="D4" t="n">
         <v>913</v>
       </c>
       <c r="E4" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F4" t="n">
-        <v>2.397</v>
+        <v>705.6678000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>905.3</v>
+        <v>904.4666666666667</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C5" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D5" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E5" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F5" t="n">
-        <v>69.7492</v>
+        <v>2.397</v>
       </c>
       <c r="G5" t="n">
-        <v>906.2</v>
+        <v>905.3</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>908</v>
+      </c>
+      <c r="C6" t="n">
         <v>912</v>
       </c>
-      <c r="C6" t="n">
-        <v>913</v>
-      </c>
       <c r="D6" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E6" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F6" t="n">
-        <v>173.9691</v>
+        <v>69.7492</v>
       </c>
       <c r="G6" t="n">
-        <v>907.1</v>
+        <v>906.2</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C7" t="n">
         <v>913</v>
@@ -547,15 +567,18 @@
         <v>913</v>
       </c>
       <c r="E7" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F7" t="n">
-        <v>703.4358999999999</v>
+        <v>173.9691</v>
       </c>
       <c r="G7" t="n">
-        <v>908.05</v>
+        <v>907.1</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F8" t="n">
-        <v>395</v>
+        <v>703.4358999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>908.95</v>
+        <v>908.05</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>912</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="G9" t="n">
-        <v>909.85</v>
+        <v>908.95</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -619,21 +648,24 @@
         <v>912</v>
       </c>
       <c r="C10" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D10" t="n">
         <v>912</v>
       </c>
       <c r="E10" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F10" t="n">
-        <v>500.9002</v>
+        <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>910.6833333333333</v>
+        <v>909.85</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C11" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D11" t="n">
         <v>912</v>
       </c>
       <c r="E11" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F11" t="n">
-        <v>242.2733</v>
+        <v>500.9002</v>
       </c>
       <c r="G11" t="n">
-        <v>911.55</v>
+        <v>910.6833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C12" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D12" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E12" t="n">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F12" t="n">
-        <v>460.9437</v>
+        <v>242.2733</v>
       </c>
       <c r="G12" t="n">
-        <v>912.1166666666667</v>
+        <v>911.55</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E13" t="n">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F13" t="n">
-        <v>13.4069</v>
+        <v>460.9437</v>
       </c>
       <c r="G13" t="n">
-        <v>912.1</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C14" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D14" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E14" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="F14" t="n">
-        <v>210.6805</v>
+        <v>13.4069</v>
       </c>
       <c r="G14" t="n">
-        <v>912</v>
+        <v>912.1</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -749,21 +793,24 @@
         <v>908</v>
       </c>
       <c r="C15" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D15" t="n">
         <v>908</v>
       </c>
       <c r="E15" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>210.6805</v>
       </c>
       <c r="G15" t="n">
-        <v>911.9666666666667</v>
+        <v>912</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C16" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E16" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="F16" t="n">
-        <v>1152.1454</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>911.95</v>
+        <v>911.9666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C17" t="n">
         <v>905</v>
       </c>
       <c r="D17" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>905</v>
       </c>
       <c r="F17" t="n">
-        <v>48.7026</v>
+        <v>1152.1454</v>
       </c>
       <c r="G17" t="n">
-        <v>912.0666666666667</v>
+        <v>911.95</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F18" t="n">
-        <v>10.6538</v>
+        <v>48.7026</v>
       </c>
       <c r="G18" t="n">
-        <v>912.0833333333334</v>
+        <v>912.0666666666667</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C19" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="D19" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E19" t="n">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F19" t="n">
-        <v>1662.974</v>
+        <v>10.6538</v>
       </c>
       <c r="G19" t="n">
-        <v>911.95</v>
+        <v>912.0833333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>906</v>
+      </c>
+      <c r="C20" t="n">
         <v>908</v>
       </c>
-      <c r="C20" t="n">
-        <v>911</v>
-      </c>
       <c r="D20" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E20" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F20" t="n">
-        <v>2368.180751152579</v>
+        <v>1662.974</v>
       </c>
       <c r="G20" t="n">
-        <v>911.9333333333333</v>
+        <v>911.95</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C21" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D21" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E21" t="n">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F21" t="n">
-        <v>1212.591</v>
+        <v>2368.180751152579</v>
       </c>
       <c r="G21" t="n">
-        <v>911.85</v>
+        <v>911.9333333333333</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C22" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D22" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F22" t="n">
-        <v>321.6396</v>
+        <v>1212.591</v>
       </c>
       <c r="G22" t="n">
-        <v>911.8333333333334</v>
+        <v>911.85</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F23" t="n">
-        <v>2403.3304</v>
+        <v>321.6396</v>
       </c>
       <c r="G23" t="n">
-        <v>912</v>
+        <v>911.8333333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -992,12 +1063,15 @@
         <v>911</v>
       </c>
       <c r="F24" t="n">
-        <v>2492.1152</v>
+        <v>2403.3304</v>
       </c>
       <c r="G24" t="n">
-        <v>912.1833333333333</v>
+        <v>912</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F25" t="n">
-        <v>15.4</v>
+        <v>2492.1152</v>
       </c>
       <c r="G25" t="n">
-        <v>912.1166666666667</v>
+        <v>912.1833333333333</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F26" t="n">
-        <v>318.2945</v>
+        <v>15.4</v>
       </c>
       <c r="G26" t="n">
-        <v>912.1</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C27" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D27" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E27" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F27" t="n">
-        <v>577.9292</v>
+        <v>318.2945</v>
       </c>
       <c r="G27" t="n">
-        <v>912.0833333333334</v>
+        <v>912.1</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C28" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D28" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E28" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F28" t="n">
-        <v>20.5409</v>
+        <v>577.9292</v>
       </c>
       <c r="G28" t="n">
-        <v>912</v>
+        <v>912.0833333333334</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F29" t="n">
-        <v>1.5015</v>
+        <v>20.5409</v>
       </c>
       <c r="G29" t="n">
-        <v>911.8666666666667</v>
+        <v>912</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1148,12 +1237,15 @@
         <v>909</v>
       </c>
       <c r="F30" t="n">
-        <v>268.9515</v>
+        <v>1.5015</v>
       </c>
       <c r="G30" t="n">
-        <v>911.7166666666667</v>
+        <v>911.8666666666667</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1174,12 +1266,15 @@
         <v>909</v>
       </c>
       <c r="F31" t="n">
-        <v>291.2405</v>
+        <v>268.9515</v>
       </c>
       <c r="G31" t="n">
-        <v>911.5666666666667</v>
+        <v>911.7166666666667</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1200,12 +1295,15 @@
         <v>909</v>
       </c>
       <c r="F32" t="n">
-        <v>47.87</v>
+        <v>291.2405</v>
       </c>
       <c r="G32" t="n">
-        <v>911.4833333333333</v>
+        <v>911.5666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>909</v>
       </c>
       <c r="F33" t="n">
-        <v>76.5609</v>
+        <v>47.87</v>
       </c>
       <c r="G33" t="n">
         <v>911.4833333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F34" t="n">
-        <v>3001.1145</v>
+        <v>76.5609</v>
       </c>
       <c r="G34" t="n">
-        <v>911.4666666666667</v>
+        <v>911.4833333333333</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1278,12 +1382,15 @@
         <v>908</v>
       </c>
       <c r="F35" t="n">
-        <v>6.652</v>
+        <v>3001.1145</v>
       </c>
       <c r="G35" t="n">
-        <v>911.35</v>
+        <v>911.4666666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F36" t="n">
-        <v>560</v>
+        <v>6.652</v>
       </c>
       <c r="G36" t="n">
-        <v>911.2</v>
+        <v>911.35</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C37" t="n">
         <v>907</v>
@@ -1327,15 +1437,18 @@
         <v>907</v>
       </c>
       <c r="E37" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F37" t="n">
-        <v>1065.9493</v>
+        <v>560</v>
       </c>
       <c r="G37" t="n">
-        <v>911.1</v>
+        <v>911.2</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1457,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C38" t="n">
         <v>907</v>
@@ -1353,15 +1466,18 @@
         <v>907</v>
       </c>
       <c r="E38" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F38" t="n">
-        <v>10.3916</v>
+        <v>1065.9493</v>
       </c>
       <c r="G38" t="n">
-        <v>911.0666666666667</v>
+        <v>911.1</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C39" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D39" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E39" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F39" t="n">
-        <v>850.9275</v>
+        <v>10.3916</v>
       </c>
       <c r="G39" t="n">
-        <v>910.9333333333333</v>
+        <v>911.0666666666667</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1399,21 +1518,24 @@
         <v>906</v>
       </c>
       <c r="C40" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D40" t="n">
         <v>906</v>
       </c>
       <c r="E40" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F40" t="n">
-        <v>69.9058</v>
+        <v>850.9275</v>
       </c>
       <c r="G40" t="n">
-        <v>910.75</v>
+        <v>910.9333333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,24 +1544,27 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F41" t="n">
-        <v>55.0242</v>
+        <v>69.9058</v>
       </c>
       <c r="G41" t="n">
-        <v>910.6</v>
+        <v>910.75</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F42" t="n">
-        <v>77.7705</v>
+        <v>55.0242</v>
       </c>
       <c r="G42" t="n">
-        <v>910.35</v>
+        <v>910.6</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>77.7705</v>
       </c>
       <c r="G43" t="n">
-        <v>910.2166666666667</v>
+        <v>910.35</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>911</v>
       </c>
       <c r="F44" t="n">
-        <v>67.6558</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>910.0333333333333</v>
+        <v>910.2166666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>911</v>
       </c>
       <c r="F45" t="n">
-        <v>467.1938</v>
+        <v>67.6558</v>
       </c>
       <c r="G45" t="n">
-        <v>909.8333333333334</v>
+        <v>910.0333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C46" t="n">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D46" t="n">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E46" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F46" t="n">
-        <v>99.8319</v>
+        <v>467.1938</v>
       </c>
       <c r="G46" t="n">
-        <v>909.7833333333333</v>
+        <v>909.8333333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1581,21 +1721,24 @@
         <v>915</v>
       </c>
       <c r="C47" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D47" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E47" t="n">
         <v>915</v>
       </c>
       <c r="F47" t="n">
-        <v>1088.9325</v>
+        <v>99.8319</v>
       </c>
       <c r="G47" t="n">
-        <v>909.8666666666667</v>
+        <v>909.7833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C48" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D48" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E48" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F48" t="n">
-        <v>54.3354</v>
+        <v>1088.9325</v>
       </c>
       <c r="G48" t="n">
-        <v>909.85</v>
+        <v>909.8666666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C49" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D49" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E49" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F49" t="n">
-        <v>10.1891</v>
+        <v>54.3354</v>
       </c>
       <c r="G49" t="n">
-        <v>909.7833333333333</v>
+        <v>909.85</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1458</v>
+        <v>10.1891</v>
       </c>
       <c r="G50" t="n">
-        <v>909.7166666666667</v>
+        <v>909.7833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F51" t="n">
-        <v>220.187</v>
+        <v>1.1458</v>
       </c>
       <c r="G51" t="n">
-        <v>909.7</v>
+        <v>909.7166666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>914</v>
       </c>
       <c r="F52" t="n">
-        <v>225.9882</v>
+        <v>220.187</v>
       </c>
       <c r="G52" t="n">
-        <v>909.75</v>
+        <v>909.7</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F53" t="n">
-        <v>765.3292</v>
+        <v>225.9882</v>
       </c>
       <c r="G53" t="n">
-        <v>909.8166666666667</v>
+        <v>909.75</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F54" t="n">
-        <v>161.1</v>
+        <v>765.3292</v>
       </c>
       <c r="G54" t="n">
-        <v>910</v>
+        <v>909.8166666666667</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>918</v>
       </c>
       <c r="F55" t="n">
-        <v>3.2679</v>
+        <v>161.1</v>
       </c>
       <c r="G55" t="n">
-        <v>910.1</v>
+        <v>910</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,25 +1979,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="C56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="D56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="F56" t="n">
-        <v>773.8219</v>
+        <v>3.2679</v>
       </c>
       <c r="G56" t="n">
-        <v>910.1333333333333</v>
+        <v>910.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +2008,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F57" t="n">
-        <v>107.1995</v>
+        <v>773.8219</v>
       </c>
       <c r="G57" t="n">
-        <v>910.2166666666667</v>
+        <v>910.1333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F58" t="n">
-        <v>15.2583</v>
+        <v>107.1995</v>
       </c>
       <c r="G58" t="n">
-        <v>910.3166666666667</v>
+        <v>910.2166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0251</v>
+        <v>15.2583</v>
       </c>
       <c r="G59" t="n">
-        <v>910.3833333333333</v>
+        <v>910.3166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="F60" t="n">
-        <v>19</v>
+        <v>1.0251</v>
       </c>
       <c r="G60" t="n">
-        <v>910.4833333333333</v>
+        <v>910.3833333333333</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F61" t="n">
-        <v>27.3453</v>
+        <v>19</v>
       </c>
       <c r="G61" t="n">
-        <v>910.6166666666667</v>
+        <v>910.4833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>915</v>
       </c>
       <c r="F62" t="n">
-        <v>593.72</v>
+        <v>27.3453</v>
       </c>
       <c r="G62" t="n">
-        <v>910.6666666666666</v>
+        <v>910.6166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0996</v>
+        <v>593.72</v>
       </c>
       <c r="G63" t="n">
-        <v>910.6833333333333</v>
+        <v>910.6666666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>914</v>
       </c>
       <c r="F64" t="n">
-        <v>2.2101</v>
+        <v>1.0996</v>
       </c>
       <c r="G64" t="n">
-        <v>910.7666666666667</v>
+        <v>910.6833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F65" t="n">
-        <v>1.6434</v>
+        <v>2.2101</v>
       </c>
       <c r="G65" t="n">
-        <v>910.85</v>
+        <v>910.7666666666667</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C66" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D66" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E66" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F66" t="n">
-        <v>415.4007</v>
+        <v>1.6434</v>
       </c>
       <c r="G66" t="n">
-        <v>910.8666666666667</v>
+        <v>910.85</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C67" t="n">
         <v>914</v>
@@ -2107,15 +2307,18 @@
         <v>914</v>
       </c>
       <c r="E67" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001</v>
+        <v>415.4007</v>
       </c>
       <c r="G67" t="n">
-        <v>910.8833333333333</v>
+        <v>910.8666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2136,12 +2339,15 @@
         <v>914</v>
       </c>
       <c r="F68" t="n">
-        <v>50.46</v>
+        <v>0.0001</v>
       </c>
       <c r="G68" t="n">
-        <v>910.9166666666666</v>
+        <v>910.8833333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>50.46</v>
       </c>
       <c r="G69" t="n">
-        <v>910.9333333333333</v>
+        <v>910.9166666666666</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>913</v>
       </c>
       <c r="C70" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D70" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E70" t="n">
         <v>913</v>
       </c>
       <c r="F70" t="n">
-        <v>34.4471</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>911.0333333333333</v>
+        <v>910.9333333333333</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,7 +2414,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C71" t="n">
         <v>914</v>
@@ -2211,15 +2423,18 @@
         <v>914</v>
       </c>
       <c r="E71" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F71" t="n">
-        <v>16.5832</v>
+        <v>34.4471</v>
       </c>
       <c r="G71" t="n">
-        <v>911.0666666666667</v>
+        <v>911.0333333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>914</v>
       </c>
       <c r="F72" t="n">
-        <v>110.6412</v>
+        <v>16.5832</v>
       </c>
       <c r="G72" t="n">
-        <v>911.1666666666666</v>
+        <v>911.0666666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>914</v>
       </c>
       <c r="F73" t="n">
-        <v>217.5863</v>
+        <v>110.6412</v>
       </c>
       <c r="G73" t="n">
-        <v>911.2333333333333</v>
+        <v>911.1666666666666</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C74" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D74" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E74" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F74" t="n">
-        <v>326.6428</v>
+        <v>217.5863</v>
       </c>
       <c r="G74" t="n">
-        <v>911.4333333333333</v>
+        <v>911.2333333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>916</v>
+      </c>
+      <c r="C75" t="n">
         <v>917</v>
       </c>
-      <c r="C75" t="n">
-        <v>918</v>
-      </c>
       <c r="D75" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E75" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F75" t="n">
-        <v>85.271</v>
+        <v>326.6428</v>
       </c>
       <c r="G75" t="n">
-        <v>911.6</v>
+        <v>911.4333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,7 +2559,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C76" t="n">
         <v>918</v>
@@ -2341,15 +2568,18 @@
         <v>918</v>
       </c>
       <c r="E76" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F76" t="n">
-        <v>33.2106</v>
+        <v>85.271</v>
       </c>
       <c r="G76" t="n">
-        <v>911.8166666666667</v>
+        <v>911.6</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>918</v>
       </c>
       <c r="F77" t="n">
-        <v>2.2992</v>
+        <v>33.2106</v>
       </c>
       <c r="G77" t="n">
-        <v>912.0333333333333</v>
+        <v>911.8166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2396,13 +2629,16 @@
         <v>918</v>
       </c>
       <c r="F78" t="n">
-        <v>24.4816</v>
+        <v>2.2992</v>
       </c>
       <c r="G78" t="n">
-        <v>912.3166666666667</v>
+        <v>912.0333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2410,25 +2646,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C79" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D79" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E79" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>24.4816</v>
       </c>
       <c r="G79" t="n">
-        <v>912.5166666666667</v>
+        <v>912.3166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2436,7 +2675,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C80" t="n">
         <v>920</v>
@@ -2445,16 +2684,19 @@
         <v>920</v>
       </c>
       <c r="E80" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F80" t="n">
-        <v>54.7259</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>912.6666666666666</v>
+        <v>912.5166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2474,13 +2716,16 @@
         <v>920</v>
       </c>
       <c r="F81" t="n">
-        <v>73.99939999999999</v>
+        <v>54.7259</v>
       </c>
       <c r="G81" t="n">
-        <v>912.9333333333333</v>
+        <v>912.6666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2488,7 +2733,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C82" t="n">
         <v>920</v>
@@ -2497,16 +2742,19 @@
         <v>920</v>
       </c>
       <c r="E82" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F82" t="n">
-        <v>1687.8375</v>
+        <v>73.99939999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>913.1166666666667</v>
+        <v>912.9333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C83" t="n">
         <v>920</v>
@@ -2523,16 +2771,19 @@
         <v>920</v>
       </c>
       <c r="E83" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F83" t="n">
-        <v>364.2385</v>
+        <v>1687.8375</v>
       </c>
       <c r="G83" t="n">
-        <v>913.2666666666667</v>
+        <v>913.1166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -2552,13 +2803,16 @@
         <v>920</v>
       </c>
       <c r="F84" t="n">
-        <v>42.024</v>
+        <v>364.2385</v>
       </c>
       <c r="G84" t="n">
-        <v>913.4166666666666</v>
+        <v>913.2666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -2578,13 +2832,16 @@
         <v>920</v>
       </c>
       <c r="F85" t="n">
-        <v>3255.5567</v>
+        <v>42.024</v>
       </c>
       <c r="G85" t="n">
-        <v>913.65</v>
+        <v>913.4166666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -2595,21 +2852,24 @@
         <v>920</v>
       </c>
       <c r="C86" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D86" t="n">
         <v>920</v>
       </c>
       <c r="E86" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F86" t="n">
-        <v>60.9948</v>
+        <v>3255.5567</v>
       </c>
       <c r="G86" t="n">
-        <v>913.8</v>
+        <v>913.65</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2618,24 +2878,27 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C87" t="n">
         <v>919</v>
       </c>
       <c r="D87" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E87" t="n">
         <v>919</v>
       </c>
       <c r="F87" t="n">
-        <v>1052.8699</v>
+        <v>60.9948</v>
       </c>
       <c r="G87" t="n">
-        <v>913.9666666666667</v>
+        <v>913.8</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>919</v>
       </c>
       <c r="C88" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D88" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E88" t="n">
         <v>919</v>
       </c>
       <c r="F88" t="n">
-        <v>287.3061</v>
+        <v>1052.8699</v>
       </c>
       <c r="G88" t="n">
-        <v>914.15</v>
+        <v>913.9666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>919</v>
+      </c>
+      <c r="C89" t="n">
         <v>921</v>
       </c>
-      <c r="C89" t="n">
-        <v>922</v>
-      </c>
       <c r="D89" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E89" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F89" t="n">
-        <v>2688.5745</v>
+        <v>287.3061</v>
       </c>
       <c r="G89" t="n">
-        <v>914.3666666666667</v>
+        <v>914.15</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2696,7 +2965,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C90" t="n">
         <v>922</v>
@@ -2705,15 +2974,18 @@
         <v>922</v>
       </c>
       <c r="E90" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F90" t="n">
-        <v>460.1522</v>
+        <v>2688.5745</v>
       </c>
       <c r="G90" t="n">
-        <v>914.5833333333334</v>
+        <v>914.3666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F91" t="n">
-        <v>36.198</v>
+        <v>460.1522</v>
       </c>
       <c r="G91" t="n">
-        <v>914.7833333333333</v>
+        <v>914.5833333333334</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F92" t="n">
-        <v>1069.5</v>
+        <v>36.198</v>
       </c>
       <c r="G92" t="n">
-        <v>915</v>
+        <v>914.7833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>922</v>
       </c>
       <c r="F93" t="n">
-        <v>528.7433</v>
+        <v>1069.5</v>
       </c>
       <c r="G93" t="n">
-        <v>915.2166666666667</v>
+        <v>915</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>922</v>
       </c>
       <c r="F94" t="n">
-        <v>503</v>
+        <v>528.7433</v>
       </c>
       <c r="G94" t="n">
-        <v>915.45</v>
+        <v>915.2166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>922</v>
       </c>
       <c r="F95" t="n">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G95" t="n">
-        <v>915.6833333333333</v>
+        <v>915.45</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>922</v>
       </c>
       <c r="F96" t="n">
-        <v>162.5124</v>
+        <v>101</v>
       </c>
       <c r="G96" t="n">
-        <v>915.9333333333333</v>
+        <v>915.6833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F97" t="n">
-        <v>61.6395</v>
+        <v>162.5124</v>
       </c>
       <c r="G97" t="n">
-        <v>916.1666666666666</v>
+        <v>915.9333333333333</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>61.6395</v>
       </c>
       <c r="G98" t="n">
-        <v>916.3833333333333</v>
+        <v>916.1666666666666</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C99" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D99" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E99" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F99" t="n">
-        <v>162.2199</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>916.65</v>
+        <v>916.3833333333333</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>922</v>
       </c>
       <c r="C100" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D100" t="n">
         <v>922</v>
       </c>
       <c r="E100" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F100" t="n">
-        <v>628</v>
+        <v>162.2199</v>
       </c>
       <c r="G100" t="n">
-        <v>916.9166666666666</v>
+        <v>916.65</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>922</v>
       </c>
       <c r="F101" t="n">
-        <v>320.6</v>
+        <v>628</v>
       </c>
       <c r="G101" t="n">
-        <v>917.1333333333333</v>
+        <v>916.9166666666666</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>922</v>
       </c>
       <c r="F102" t="n">
-        <v>421.3862</v>
+        <v>320.6</v>
       </c>
       <c r="G102" t="n">
-        <v>917.3333333333334</v>
+        <v>917.1333333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>922</v>
       </c>
       <c r="F103" t="n">
-        <v>18.4269</v>
+        <v>421.3862</v>
       </c>
       <c r="G103" t="n">
-        <v>917.5166666666667</v>
+        <v>917.3333333333334</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,12 +3383,15 @@
         <v>922</v>
       </c>
       <c r="F104" t="n">
-        <v>51.3642</v>
+        <v>18.4269</v>
       </c>
       <c r="G104" t="n">
-        <v>917.7</v>
+        <v>917.5166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3098,12 +3412,15 @@
         <v>922</v>
       </c>
       <c r="F105" t="n">
-        <v>1530.3653</v>
+        <v>51.3642</v>
       </c>
       <c r="G105" t="n">
-        <v>917.8833333333333</v>
+        <v>917.7</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F106" t="n">
-        <v>238.3739</v>
+        <v>1530.3653</v>
       </c>
       <c r="G106" t="n">
-        <v>917.9666666666667</v>
+        <v>917.8833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,21 +3461,24 @@
         <v>921</v>
       </c>
       <c r="C107" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D107" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E107" t="n">
         <v>921</v>
       </c>
       <c r="F107" t="n">
-        <v>2629.5305</v>
+        <v>238.3739</v>
       </c>
       <c r="G107" t="n">
-        <v>918.0166666666667</v>
+        <v>917.9666666666667</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C108" t="n">
         <v>922</v>
@@ -3173,15 +3496,18 @@
         <v>922</v>
       </c>
       <c r="E108" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F108" t="n">
-        <v>506.3754</v>
+        <v>2629.5305</v>
       </c>
       <c r="G108" t="n">
-        <v>918.15</v>
+        <v>918.0166666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C109" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D109" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E109" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F109" t="n">
-        <v>252.2516</v>
+        <v>506.3754</v>
       </c>
       <c r="G109" t="n">
-        <v>918.35</v>
+        <v>918.15</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,7 +3545,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C110" t="n">
         <v>924</v>
@@ -3225,15 +3554,18 @@
         <v>924</v>
       </c>
       <c r="E110" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F110" t="n">
-        <v>685.9290999999999</v>
+        <v>252.2516</v>
       </c>
       <c r="G110" t="n">
-        <v>918.5333333333333</v>
+        <v>918.35</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>924</v>
       </c>
       <c r="F111" t="n">
-        <v>330.1255</v>
+        <v>685.9290999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>918.7</v>
+        <v>918.5333333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>924</v>
       </c>
       <c r="F112" t="n">
-        <v>5.14</v>
+        <v>330.1255</v>
       </c>
       <c r="G112" t="n">
-        <v>918.8666666666667</v>
+        <v>918.7</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>924</v>
       </c>
       <c r="F113" t="n">
-        <v>1.542</v>
+        <v>5.14</v>
       </c>
       <c r="G113" t="n">
-        <v>919.05</v>
+        <v>918.8666666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3332,12 +3673,15 @@
         <v>924</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6609</v>
+        <v>1.542</v>
       </c>
       <c r="G114" t="n">
-        <v>919.15</v>
+        <v>919.05</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>924</v>
       </c>
       <c r="F115" t="n">
-        <v>40.9506</v>
+        <v>0.6609</v>
       </c>
       <c r="G115" t="n">
-        <v>919.25</v>
+        <v>919.15</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>924</v>
       </c>
       <c r="F116" t="n">
-        <v>386.9201</v>
+        <v>40.9506</v>
       </c>
       <c r="G116" t="n">
-        <v>919.4333333333333</v>
+        <v>919.25</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>924</v>
       </c>
       <c r="F117" t="n">
-        <v>12.5538</v>
+        <v>386.9201</v>
       </c>
       <c r="G117" t="n">
-        <v>919.55</v>
+        <v>919.4333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>924</v>
       </c>
       <c r="F118" t="n">
-        <v>69.2608</v>
+        <v>12.5538</v>
       </c>
       <c r="G118" t="n">
-        <v>919.65</v>
+        <v>919.55</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F119" t="n">
-        <v>34.5234</v>
+        <v>69.2608</v>
       </c>
       <c r="G119" t="n">
-        <v>919.7166666666667</v>
+        <v>919.65</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F120" t="n">
-        <v>56.6564</v>
+        <v>34.5234</v>
       </c>
       <c r="G120" t="n">
-        <v>919.8166666666667</v>
+        <v>919.7166666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>920</v>
       </c>
       <c r="F121" t="n">
-        <v>1505.8651</v>
+        <v>56.6564</v>
       </c>
       <c r="G121" t="n">
-        <v>919.9</v>
+        <v>919.8166666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F122" t="n">
-        <v>3.0867</v>
+        <v>1505.8651</v>
       </c>
       <c r="G122" t="n">
-        <v>920.0333333333333</v>
+        <v>919.9</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>923</v>
       </c>
       <c r="F123" t="n">
-        <v>88.09310000000001</v>
+        <v>3.0867</v>
       </c>
       <c r="G123" t="n">
-        <v>920.1833333333333</v>
+        <v>920.0333333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F124" t="n">
-        <v>69.6919</v>
+        <v>88.09310000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>920.35</v>
+        <v>920.1833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3618,12 +3992,15 @@
         <v>924</v>
       </c>
       <c r="F125" t="n">
-        <v>34.4604</v>
+        <v>69.6919</v>
       </c>
       <c r="G125" t="n">
-        <v>920.4666666666667</v>
+        <v>920.35</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3644,12 +4021,15 @@
         <v>924</v>
       </c>
       <c r="F126" t="n">
-        <v>114.0331</v>
+        <v>34.4604</v>
       </c>
       <c r="G126" t="n">
-        <v>920.6333333333333</v>
+        <v>920.4666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3658,24 +4038,27 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F127" t="n">
-        <v>935.4804</v>
+        <v>114.0331</v>
       </c>
       <c r="G127" t="n">
-        <v>920.8166666666667</v>
+        <v>920.6333333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F128" t="n">
-        <v>17.8654</v>
+        <v>935.4804</v>
       </c>
       <c r="G128" t="n">
-        <v>921.0333333333333</v>
+        <v>920.8166666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>927</v>
       </c>
       <c r="F129" t="n">
-        <v>3.081</v>
+        <v>17.8654</v>
       </c>
       <c r="G129" t="n">
-        <v>921.2666666666667</v>
+        <v>921.0333333333333</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F130" t="n">
-        <v>910.2718</v>
+        <v>3.081</v>
       </c>
       <c r="G130" t="n">
-        <v>921.45</v>
+        <v>921.2666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F131" t="n">
-        <v>49.4798</v>
+        <v>910.2718</v>
       </c>
       <c r="G131" t="n">
-        <v>921.6666666666666</v>
+        <v>921.45</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>49.4798</v>
       </c>
       <c r="G132" t="n">
-        <v>921.85</v>
+        <v>921.6666666666666</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>925</v>
       </c>
       <c r="C133" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D133" t="n">
         <v>925</v>
       </c>
       <c r="E133" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F133" t="n">
-        <v>7393.9857</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>922.0166666666667</v>
+        <v>921.85</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C134" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D134" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E134" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F134" t="n">
-        <v>52.5</v>
+        <v>7393.9857</v>
       </c>
       <c r="G134" t="n">
-        <v>922.2166666666667</v>
+        <v>922.0166666666667</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,7 +4270,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C135" t="n">
         <v>929</v>
@@ -3875,15 +4279,18 @@
         <v>929</v>
       </c>
       <c r="E135" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F135" t="n">
-        <v>1417.4007</v>
+        <v>52.5</v>
       </c>
       <c r="G135" t="n">
-        <v>922.4</v>
+        <v>922.2166666666667</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C136" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D136" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E136" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F136" t="n">
-        <v>450.005</v>
+        <v>1417.4007</v>
       </c>
       <c r="G136" t="n">
-        <v>922.5333333333333</v>
+        <v>922.4</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3921,21 +4331,24 @@
         <v>926</v>
       </c>
       <c r="C137" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D137" t="n">
         <v>926</v>
       </c>
       <c r="E137" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F137" t="n">
-        <v>2353.7674</v>
+        <v>450.005</v>
       </c>
       <c r="G137" t="n">
-        <v>922.6166666666667</v>
+        <v>922.5333333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C138" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D138" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E138" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F138" t="n">
-        <v>34.1451</v>
+        <v>2353.7674</v>
       </c>
       <c r="G138" t="n">
-        <v>922.7333333333333</v>
+        <v>922.6166666666667</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3973,21 +4389,24 @@
         <v>925</v>
       </c>
       <c r="C139" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D139" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E139" t="n">
         <v>925</v>
       </c>
       <c r="F139" t="n">
-        <v>444.66</v>
+        <v>34.1451</v>
       </c>
       <c r="G139" t="n">
-        <v>922.8333333333334</v>
+        <v>922.7333333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,7 +4415,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C140" t="n">
         <v>926</v>
@@ -4005,15 +4424,18 @@
         <v>926</v>
       </c>
       <c r="E140" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F140" t="n">
-        <v>869.0667999999999</v>
+        <v>444.66</v>
       </c>
       <c r="G140" t="n">
-        <v>922.9333333333333</v>
+        <v>922.8333333333334</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,7 +4444,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C141" t="n">
         <v>926</v>
@@ -4031,15 +4453,18 @@
         <v>926</v>
       </c>
       <c r="E141" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F141" t="n">
-        <v>827.2886999999999</v>
+        <v>869.0667999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>923.0333333333333</v>
+        <v>922.9333333333333</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4048,7 +4473,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C142" t="n">
         <v>926</v>
@@ -4057,15 +4482,18 @@
         <v>926</v>
       </c>
       <c r="E142" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F142" t="n">
-        <v>884.6762</v>
+        <v>827.2886999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>923.1333333333333</v>
+        <v>923.0333333333333</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,10 +4502,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>925</v>
+      </c>
+      <c r="C143" t="n">
         <v>926</v>
-      </c>
-      <c r="C143" t="n">
-        <v>925</v>
       </c>
       <c r="D143" t="n">
         <v>926</v>
@@ -4086,12 +4514,15 @@
         <v>925</v>
       </c>
       <c r="F143" t="n">
-        <v>946.9595</v>
+        <v>884.6762</v>
       </c>
       <c r="G143" t="n">
-        <v>923.2166666666667</v>
+        <v>923.1333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4103,21 +4534,24 @@
         <v>926</v>
       </c>
       <c r="C144" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D144" t="n">
         <v>926</v>
       </c>
       <c r="E144" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F144" t="n">
-        <v>801.1521</v>
+        <v>946.9595</v>
       </c>
       <c r="G144" t="n">
-        <v>923.3166666666667</v>
+        <v>923.2166666666667</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>926</v>
       </c>
       <c r="F145" t="n">
-        <v>606.7057</v>
+        <v>801.1521</v>
       </c>
       <c r="G145" t="n">
-        <v>923.4166666666666</v>
+        <v>923.3166666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F146" t="n">
-        <v>179.2545</v>
+        <v>606.7057</v>
       </c>
       <c r="G146" t="n">
-        <v>923.55</v>
+        <v>923.4166666666666</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>927</v>
       </c>
       <c r="F147" t="n">
-        <v>84.36750000000001</v>
+        <v>179.2545</v>
       </c>
       <c r="G147" t="n">
-        <v>923.6833333333333</v>
+        <v>923.55</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4216,12 +4659,15 @@
         <v>927</v>
       </c>
       <c r="F148" t="n">
-        <v>480.5801</v>
+        <v>84.36750000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>923.7833333333333</v>
+        <v>923.6833333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,7 +4676,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C149" t="n">
         <v>927</v>
@@ -4239,15 +4685,18 @@
         <v>927</v>
       </c>
       <c r="E149" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F149" t="n">
-        <v>664.1324</v>
+        <v>480.5801</v>
       </c>
       <c r="G149" t="n">
-        <v>923.8666666666667</v>
+        <v>923.7833333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,7 +4705,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C150" t="n">
         <v>927</v>
@@ -4265,15 +4714,18 @@
         <v>927</v>
       </c>
       <c r="E150" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F150" t="n">
-        <v>63.4978</v>
+        <v>664.1324</v>
       </c>
       <c r="G150" t="n">
-        <v>923.95</v>
+        <v>923.8666666666667</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4294,12 +4746,15 @@
         <v>927</v>
       </c>
       <c r="F151" t="n">
-        <v>89.3</v>
+        <v>63.4978</v>
       </c>
       <c r="G151" t="n">
-        <v>924.05</v>
+        <v>923.95</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F152" t="n">
-        <v>2.9925</v>
+        <v>89.3</v>
       </c>
       <c r="G152" t="n">
-        <v>924.0833333333334</v>
+        <v>924.05</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F153" t="n">
-        <v>10.9637</v>
+        <v>2.9925</v>
       </c>
       <c r="G153" t="n">
-        <v>924.1666666666666</v>
+        <v>924.0833333333334</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4372,12 +4833,15 @@
         <v>927</v>
       </c>
       <c r="F154" t="n">
-        <v>3.061</v>
+        <v>10.9637</v>
       </c>
       <c r="G154" t="n">
-        <v>924.25</v>
+        <v>924.1666666666666</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,21 +4853,24 @@
         <v>927</v>
       </c>
       <c r="C155" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D155" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E155" t="n">
         <v>927</v>
       </c>
       <c r="F155" t="n">
-        <v>5.7218</v>
+        <v>3.061</v>
       </c>
       <c r="G155" t="n">
-        <v>924.3666666666667</v>
+        <v>924.25</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4879,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C156" t="n">
         <v>929</v>
@@ -4421,15 +4888,18 @@
         <v>929</v>
       </c>
       <c r="E156" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F156" t="n">
-        <v>10.6833</v>
+        <v>5.7218</v>
       </c>
       <c r="G156" t="n">
-        <v>924.4833333333333</v>
+        <v>924.3666666666667</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4450,12 +4920,15 @@
         <v>929</v>
       </c>
       <c r="F157" t="n">
-        <v>86.7127</v>
+        <v>10.6833</v>
       </c>
       <c r="G157" t="n">
-        <v>924.6166666666667</v>
+        <v>924.4833333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4476,12 +4949,15 @@
         <v>929</v>
       </c>
       <c r="F158" t="n">
-        <v>67.09999999999999</v>
+        <v>86.7127</v>
       </c>
       <c r="G158" t="n">
-        <v>924.7666666666667</v>
+        <v>924.6166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>929</v>
       </c>
       <c r="F159" t="n">
-        <v>236.1988</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>924.9</v>
+        <v>924.7666666666667</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F160" t="n">
-        <v>107.5268</v>
+        <v>236.1988</v>
       </c>
       <c r="G160" t="n">
-        <v>925.0333333333333</v>
+        <v>924.9</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F161" t="n">
-        <v>42.1626</v>
+        <v>107.5268</v>
       </c>
       <c r="G161" t="n">
-        <v>925.1333333333333</v>
+        <v>925.0333333333333</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>928</v>
       </c>
       <c r="F162" t="n">
-        <v>61.5496</v>
+        <v>42.1626</v>
       </c>
       <c r="G162" t="n">
-        <v>925.2333333333333</v>
+        <v>925.1333333333333</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F163" t="n">
-        <v>41.5987</v>
+        <v>61.5496</v>
       </c>
       <c r="G163" t="n">
-        <v>925.3166666666667</v>
+        <v>925.2333333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>927</v>
       </c>
       <c r="F164" t="n">
-        <v>320.3023</v>
+        <v>41.5987</v>
       </c>
       <c r="G164" t="n">
-        <v>925.4</v>
+        <v>925.3166666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F165" t="n">
-        <v>10.0783</v>
+        <v>320.3023</v>
       </c>
       <c r="G165" t="n">
-        <v>925.5</v>
+        <v>925.4</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F166" t="n">
-        <v>6</v>
+        <v>10.0783</v>
       </c>
       <c r="G166" t="n">
-        <v>925.6</v>
+        <v>925.5</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>927</v>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G167" t="n">
-        <v>925.6833333333333</v>
+        <v>925.6</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G168" t="n">
-        <v>925.7166666666667</v>
+        <v>925.6833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="E169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F169" t="n">
-        <v>67.4178</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>925.65</v>
+        <v>925.7166666666667</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F170" t="n">
-        <v>15.8694</v>
+        <v>67.4178</v>
       </c>
       <c r="G170" t="n">
-        <v>925.55</v>
+        <v>925.65</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4802,24 +5314,27 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C171" t="n">
         <v>918</v>
       </c>
       <c r="D171" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E171" t="n">
         <v>918</v>
       </c>
       <c r="F171" t="n">
-        <v>804.8781</v>
+        <v>15.8694</v>
       </c>
       <c r="G171" t="n">
-        <v>925.45</v>
+        <v>925.55</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C172" t="n">
         <v>918</v>
       </c>
       <c r="D172" t="n">
+        <v>919</v>
+      </c>
+      <c r="E172" t="n">
         <v>918</v>
       </c>
-      <c r="E172" t="n">
-        <v>913</v>
-      </c>
       <c r="F172" t="n">
-        <v>4152.4291</v>
+        <v>804.8781</v>
       </c>
       <c r="G172" t="n">
-        <v>925.35</v>
+        <v>925.45</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C173" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D173" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E173" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F173" t="n">
-        <v>1354.7248</v>
+        <v>4152.4291</v>
       </c>
       <c r="G173" t="n">
-        <v>925.2166666666667</v>
+        <v>925.35</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>917</v>
+      </c>
+      <c r="C174" t="n">
         <v>916</v>
       </c>
-      <c r="C174" t="n">
-        <v>918</v>
-      </c>
       <c r="D174" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E174" t="n">
         <v>916</v>
       </c>
       <c r="F174" t="n">
-        <v>285.3538</v>
+        <v>1354.7248</v>
       </c>
       <c r="G174" t="n">
-        <v>925.1166666666667</v>
+        <v>925.2166666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C175" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D175" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E175" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F175" t="n">
-        <v>156.6499</v>
+        <v>285.3538</v>
       </c>
       <c r="G175" t="n">
-        <v>924.95</v>
+        <v>925.1166666666667</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C176" t="n">
         <v>914</v>
       </c>
       <c r="D176" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E176" t="n">
         <v>914</v>
       </c>
       <c r="F176" t="n">
-        <v>45.2898</v>
+        <v>156.6499</v>
       </c>
       <c r="G176" t="n">
-        <v>924.7833333333333</v>
+        <v>924.95</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,24 +5488,27 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C177" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D177" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E177" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F177" t="n">
-        <v>56.5292</v>
+        <v>45.2898</v>
       </c>
       <c r="G177" t="n">
-        <v>924.6666666666666</v>
+        <v>924.7833333333333</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C178" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D178" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E178" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F178" t="n">
-        <v>596.5779</v>
+        <v>56.5292</v>
       </c>
       <c r="G178" t="n">
-        <v>924.5333333333333</v>
+        <v>924.6666666666666</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,24 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C179" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D179" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E179" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F179" t="n">
-        <v>1463.2795</v>
+        <v>596.5779</v>
       </c>
       <c r="G179" t="n">
-        <v>924.4833333333333</v>
+        <v>924.5333333333333</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C180" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D180" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E180" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>1463.2795</v>
       </c>
       <c r="G180" t="n">
-        <v>924.4166666666666</v>
+        <v>924.4833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5062,24 +5604,27 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F181" t="n">
-        <v>1.1845</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>924.2833333333333</v>
+        <v>924.4166666666666</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F182" t="n">
-        <v>53.7697</v>
+        <v>1.1845</v>
       </c>
       <c r="G182" t="n">
-        <v>924.1166666666667</v>
+        <v>924.2833333333333</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5126,12 +5674,15 @@
         <v>913</v>
       </c>
       <c r="F183" t="n">
-        <v>1246.0576</v>
+        <v>53.7697</v>
       </c>
       <c r="G183" t="n">
-        <v>923.95</v>
+        <v>924.1166666666667</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F184" t="n">
-        <v>115.3873</v>
+        <v>1246.0576</v>
       </c>
       <c r="G184" t="n">
-        <v>923.75</v>
+        <v>923.95</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F185" t="n">
-        <v>650.6028</v>
+        <v>115.3873</v>
       </c>
       <c r="G185" t="n">
-        <v>923.5333333333333</v>
+        <v>923.75</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C186" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D186" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E186" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F186" t="n">
-        <v>62.4773</v>
+        <v>650.6028</v>
       </c>
       <c r="G186" t="n">
-        <v>923.3666666666667</v>
+        <v>923.5333333333333</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C187" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D187" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E187" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F187" t="n">
-        <v>10.9725</v>
+        <v>62.4773</v>
       </c>
       <c r="G187" t="n">
-        <v>923.1333333333333</v>
+        <v>923.3666666666667</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5247,21 +5810,24 @@
         <v>911</v>
       </c>
       <c r="C188" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D188" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E188" t="n">
         <v>911</v>
       </c>
       <c r="F188" t="n">
-        <v>729.1999</v>
+        <v>10.9725</v>
       </c>
       <c r="G188" t="n">
-        <v>922.9166666666666</v>
+        <v>923.1333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5270,7 +5836,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C189" t="n">
         <v>914</v>
@@ -5279,15 +5845,18 @@
         <v>914</v>
       </c>
       <c r="E189" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F189" t="n">
-        <v>52.9303</v>
+        <v>729.1999</v>
       </c>
       <c r="G189" t="n">
-        <v>922.7</v>
+        <v>922.9166666666666</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,12 +5877,15 @@
         <v>914</v>
       </c>
       <c r="F190" t="n">
-        <v>63.1087</v>
+        <v>52.9303</v>
       </c>
       <c r="G190" t="n">
-        <v>922.5166666666667</v>
+        <v>922.7</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5334,12 +5906,15 @@
         <v>914</v>
       </c>
       <c r="F191" t="n">
-        <v>839.45</v>
+        <v>63.1087</v>
       </c>
       <c r="G191" t="n">
-        <v>922.3</v>
+        <v>922.5166666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,24 +5923,27 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F192" t="n">
-        <v>1530.0546</v>
+        <v>839.45</v>
       </c>
       <c r="G192" t="n">
-        <v>922.1333333333333</v>
+        <v>922.3</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C193" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D193" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E193" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F193" t="n">
-        <v>1119.562</v>
+        <v>1530.0546</v>
       </c>
       <c r="G193" t="n">
-        <v>921.9</v>
+        <v>922.1333333333333</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,24 +5981,27 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C194" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D194" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E194" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>1119.562</v>
       </c>
       <c r="G194" t="n">
-        <v>921.6</v>
+        <v>921.9</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C195" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D195" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E195" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F195" t="n">
-        <v>594.8886</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>921.35</v>
+        <v>921.6</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +6039,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C196" t="n">
         <v>914</v>
@@ -5461,15 +6048,18 @@
         <v>914</v>
       </c>
       <c r="E196" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F196" t="n">
-        <v>21.1609</v>
+        <v>594.8886</v>
       </c>
       <c r="G196" t="n">
-        <v>921.15</v>
+        <v>921.35</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5490,532 +6080,15 @@
         <v>914</v>
       </c>
       <c r="F197" t="n">
-        <v>307.0677</v>
+        <v>21.1609</v>
       </c>
       <c r="G197" t="n">
-        <v>921</v>
+        <v>921.15</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>914</v>
-      </c>
-      <c r="C198" t="n">
-        <v>914</v>
-      </c>
-      <c r="D198" t="n">
-        <v>914</v>
-      </c>
-      <c r="E198" t="n">
-        <v>914</v>
-      </c>
-      <c r="F198" t="n">
-        <v>753.2527</v>
-      </c>
-      <c r="G198" t="n">
-        <v>920.8166666666667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>915</v>
-      </c>
-      <c r="C199" t="n">
-        <v>914</v>
-      </c>
-      <c r="D199" t="n">
-        <v>915</v>
-      </c>
-      <c r="E199" t="n">
-        <v>911</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1248.732</v>
-      </c>
-      <c r="G199" t="n">
-        <v>920.6166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>914</v>
-      </c>
-      <c r="C200" t="n">
-        <v>916</v>
-      </c>
-      <c r="D200" t="n">
-        <v>916</v>
-      </c>
-      <c r="E200" t="n">
-        <v>914</v>
-      </c>
-      <c r="F200" t="n">
-        <v>543.596</v>
-      </c>
-      <c r="G200" t="n">
-        <v>920.45</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>915</v>
-      </c>
-      <c r="C201" t="n">
-        <v>915</v>
-      </c>
-      <c r="D201" t="n">
-        <v>915</v>
-      </c>
-      <c r="E201" t="n">
-        <v>915</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>920.2666666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>917</v>
-      </c>
-      <c r="C202" t="n">
-        <v>917</v>
-      </c>
-      <c r="D202" t="n">
-        <v>917</v>
-      </c>
-      <c r="E202" t="n">
-        <v>917</v>
-      </c>
-      <c r="F202" t="n">
-        <v>186.5757</v>
-      </c>
-      <c r="G202" t="n">
-        <v>920.1166666666667</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>917</v>
-      </c>
-      <c r="C203" t="n">
-        <v>917</v>
-      </c>
-      <c r="D203" t="n">
-        <v>917</v>
-      </c>
-      <c r="E203" t="n">
-        <v>917</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1889.2147</v>
-      </c>
-      <c r="G203" t="n">
-        <v>919.9833333333333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>913</v>
-      </c>
-      <c r="C204" t="n">
-        <v>913</v>
-      </c>
-      <c r="D204" t="n">
-        <v>913</v>
-      </c>
-      <c r="E204" t="n">
-        <v>913</v>
-      </c>
-      <c r="F204" t="n">
-        <v>22.6449</v>
-      </c>
-      <c r="G204" t="n">
-        <v>919.7666666666667</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>913</v>
-      </c>
-      <c r="C205" t="n">
-        <v>913</v>
-      </c>
-      <c r="D205" t="n">
-        <v>913</v>
-      </c>
-      <c r="E205" t="n">
-        <v>913</v>
-      </c>
-      <c r="F205" t="n">
-        <v>36.5376</v>
-      </c>
-      <c r="G205" t="n">
-        <v>919.55</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>914</v>
-      </c>
-      <c r="C206" t="n">
-        <v>914</v>
-      </c>
-      <c r="D206" t="n">
-        <v>914</v>
-      </c>
-      <c r="E206" t="n">
-        <v>914</v>
-      </c>
-      <c r="F206" t="n">
-        <v>36.2151</v>
-      </c>
-      <c r="G206" t="n">
-        <v>919.3333333333334</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>915</v>
-      </c>
-      <c r="C207" t="n">
-        <v>916</v>
-      </c>
-      <c r="D207" t="n">
-        <v>916</v>
-      </c>
-      <c r="E207" t="n">
-        <v>915</v>
-      </c>
-      <c r="F207" t="n">
-        <v>88.61790000000001</v>
-      </c>
-      <c r="G207" t="n">
-        <v>919.15</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>917</v>
-      </c>
-      <c r="C208" t="n">
-        <v>917</v>
-      </c>
-      <c r="D208" t="n">
-        <v>917</v>
-      </c>
-      <c r="E208" t="n">
-        <v>917</v>
-      </c>
-      <c r="F208" t="n">
-        <v>11.3838</v>
-      </c>
-      <c r="G208" t="n">
-        <v>918.9833333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>913</v>
-      </c>
-      <c r="C209" t="n">
-        <v>913</v>
-      </c>
-      <c r="D209" t="n">
-        <v>913</v>
-      </c>
-      <c r="E209" t="n">
-        <v>913</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5.6776</v>
-      </c>
-      <c r="G209" t="n">
-        <v>918.75</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>917</v>
-      </c>
-      <c r="C210" t="n">
-        <v>917</v>
-      </c>
-      <c r="D210" t="n">
-        <v>917</v>
-      </c>
-      <c r="E210" t="n">
-        <v>917</v>
-      </c>
-      <c r="F210" t="n">
-        <v>54.52562704471102</v>
-      </c>
-      <c r="G210" t="n">
-        <v>918.5833333333334</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>913</v>
-      </c>
-      <c r="C211" t="n">
-        <v>913</v>
-      </c>
-      <c r="D211" t="n">
-        <v>913</v>
-      </c>
-      <c r="E211" t="n">
-        <v>913</v>
-      </c>
-      <c r="F211" t="n">
-        <v>73.5663</v>
-      </c>
-      <c r="G211" t="n">
-        <v>918.35</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>913</v>
-      </c>
-      <c r="C212" t="n">
-        <v>913</v>
-      </c>
-      <c r="D212" t="n">
-        <v>913</v>
-      </c>
-      <c r="E212" t="n">
-        <v>913</v>
-      </c>
-      <c r="F212" t="n">
-        <v>42.5452</v>
-      </c>
-      <c r="G212" t="n">
-        <v>918.1666666666666</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>913</v>
-      </c>
-      <c r="C213" t="n">
-        <v>912</v>
-      </c>
-      <c r="D213" t="n">
-        <v>913</v>
-      </c>
-      <c r="E213" t="n">
-        <v>912</v>
-      </c>
-      <c r="F213" t="n">
-        <v>457.2048</v>
-      </c>
-      <c r="G213" t="n">
-        <v>917.9166666666666</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>911</v>
-      </c>
-      <c r="C214" t="n">
-        <v>911</v>
-      </c>
-      <c r="D214" t="n">
-        <v>911</v>
-      </c>
-      <c r="E214" t="n">
-        <v>911</v>
-      </c>
-      <c r="F214" t="n">
-        <v>317.547</v>
-      </c>
-      <c r="G214" t="n">
-        <v>917.65</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>910</v>
-      </c>
-      <c r="C215" t="n">
-        <v>910</v>
-      </c>
-      <c r="D215" t="n">
-        <v>910</v>
-      </c>
-      <c r="E215" t="n">
-        <v>910</v>
-      </c>
-      <c r="F215" t="n">
-        <v>22.9228</v>
-      </c>
-      <c r="G215" t="n">
-        <v>917.3333333333334</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>910</v>
-      </c>
-      <c r="C216" t="n">
-        <v>910</v>
-      </c>
-      <c r="D216" t="n">
-        <v>910</v>
-      </c>
-      <c r="E216" t="n">
-        <v>910</v>
-      </c>
-      <c r="F216" t="n">
-        <v>22.1268</v>
-      </c>
-      <c r="G216" t="n">
-        <v>917.0166666666667</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>910</v>
-      </c>
-      <c r="C217" t="n">
-        <v>910</v>
-      </c>
-      <c r="D217" t="n">
-        <v>910</v>
-      </c>
-      <c r="E217" t="n">
-        <v>910</v>
-      </c>
-      <c r="F217" t="n">
-        <v>90.917</v>
-      </c>
-      <c r="G217" t="n">
-        <v>916.7</v>
-      </c>
-      <c r="H217" t="n">
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
